--- a/nriss-patch-1/ig/StructureDefinition-tddui-service-request-besoin.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-service-request-besoin.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ServiceRequest|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -468,7 +468,7 @@
     <t>pieceJointeBesoin</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-attachment|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -785,7 +785,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-careplan-projet-personnalise|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -936,7 +936,7 @@
     <t>Used for filtering what service request are retrieved and displayed.</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J285-Besoins_SERAFIN/FHIR/JDV-J285-Besoins-SERAFIN</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J285-Besoins_SERAFIN/FHIR/JDV-J285-Besoins-SERAFIN|20241025120000</t>
   </si>
   <si>
     <t>typeBesoin</t>
@@ -1173,7 +1173,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient|2.2.0-ballot|https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-patient-ins|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1429,7 +1429,7 @@
     <t>A location type where services are delivered.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType|3.0.0</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[scoper.determinerCode=KIND].code</t>
@@ -2048,7 +2048,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="131.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="150.68359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2063,7 +2063,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="160.17578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.74609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="87.27734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
